--- a/Framework_DX11/Client/Bin/DataFiles/Tutorial_Chapter.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Tutorial_Chapter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E41594A3-6350-480D-8AAE-295225F16128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65D9738B-F8F7-4574-B9A3-20E895C92C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="885" windowWidth="21600" windowHeight="12975" xr2:uid="{56E5B20C-0607-44EB-B839-624A73907D88}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="12975" xr2:uid="{56E5B20C-0607-44EB-B839-624A73907D88}"/>
   </bookViews>
   <sheets>
     <sheet name="Tutorial_Chapter" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="64">
   <si>
     <t>_Index</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -108,10 +108,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>좌클릭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>: 일반 공격 1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -136,10 +132,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>여러 회 클릭 시, 2가지 공격을 번갈아 가며 진행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>페이블 아츠를 소모해 특수한 기술 사용</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -160,10 +152,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>우클릭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>강력한 공격 진행</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -276,15 +264,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>: 방패로 막기 (퍼펙트 가드 확률 UP)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>기본 회피 방법</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>이동키와 스페이스를 함께 누르면 회피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LBUTTON</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RBUTTON</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러 회 클릭 하면 2가지 공격을 번갈아 가며 진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>: 막기 (퍼펙트 가드 확률 UP)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -713,7 +713,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -733,10 +733,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -774,7 +774,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -794,24 +794,28 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="K2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -831,14 +835,18 @@
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="K3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -848,58 +856,60 @@
         <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="K4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>13</v>
@@ -907,45 +917,49 @@
       <c r="I5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="K5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>13</v>
@@ -953,29 +967,31 @@
       <c r="L6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>13</v>
@@ -983,64 +999,72 @@
       <c r="I7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="K7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="H8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="K8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="1"/>
+      <c r="M8" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>15</v>
@@ -1049,7 +1073,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>15</v>
@@ -1058,7 +1082,7 @@
         <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>13</v>
@@ -1066,75 +1090,81 @@
       <c r="L9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="K10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>13</v>
@@ -1142,7 +1172,9 @@
       <c r="L11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="1"/>
+      <c r="M11" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Framework_DX11/Client/Bin/DataFiles/Tutorial_Chapter.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Tutorial_Chapter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65D9738B-F8F7-4574-B9A3-20E895C92C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D636D6B8-5FCC-4817-A829-E4C057BE6C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="12975" xr2:uid="{56E5B20C-0607-44EB-B839-624A73907D88}"/>
+    <workbookView xWindow="2160" yWindow="735" windowWidth="21600" windowHeight="12975" xr2:uid="{56E5B20C-0607-44EB-B839-624A73907D88}"/>
   </bookViews>
   <sheets>
     <sheet name="Tutorial_Chapter" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="69">
   <si>
     <t>_Index</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -224,10 +224,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>리전 암 특수 기능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>우측 하단에서 조작키 및 소모되는 아츠 확인</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -284,7 +280,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>: 막기 (퍼펙트 가드 확률 UP)</t>
+    <t>: 가드 (퍼펙트 확률 UP)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리전 암 카운터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방패로 적의 공격을 막고 뒤로 밀렸을 때</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl을 빠르게 떼었다가 누르면 카운터 어택</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>: 방어 상태 유지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>: 카운터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리전 암 공격 및 방어</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -337,7 +357,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -360,13 +380,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -374,6 +405,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -710,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8C79D9-1263-46C7-932E-3A1FBC3B4D94}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -812,10 +846,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -859,10 +893,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>13</v>
@@ -871,7 +905,7 @@
         <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>13</v>
@@ -903,7 +937,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
@@ -941,7 +975,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>26</v>
@@ -985,7 +1019,7 @@
         <v>34</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
@@ -1099,22 +1133,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="F10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>13</v>
@@ -1140,39 +1174,80 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11" s="1" t="s">
+      <c r="C12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Framework_DX11/Client/Bin/DataFiles/Tutorial_Chapter.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Tutorial_Chapter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D636D6B8-5FCC-4817-A829-E4C057BE6C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A60E1CAA-8F33-48A0-8AB0-C709D6F13BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="735" windowWidth="21600" windowHeight="12975" xr2:uid="{56E5B20C-0607-44EB-B839-624A73907D88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{56E5B20C-0607-44EB-B839-624A73907D88}"/>
   </bookViews>
   <sheets>
     <sheet name="Tutorial_Chapter" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="70">
   <si>
     <t>_Index</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -108,14 +108,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>: 일반 공격 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>: 일반 공격 2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>_ChapterDesc0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -128,10 +120,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>마우스 좌클릭으로 일반 공격</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>페이블 아츠를 소모해 특수한 기술 사용</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -276,10 +264,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>여러 회 클릭 하면 2가지 공격을 번갈아 가며 진행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>: 가드 (퍼펙트 확률 UP)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -305,6 +289,26 @@
   </si>
   <si>
     <t>리전 암 공격 및 방어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>: 시선 고정 및 해제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>: 일반 공격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBUTTON</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>휠버튼은 시선 고정 좌클릭은 일반 공격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러 회 좌클릭 하면 2가지 다른 공격 진행</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -747,7 +751,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -767,10 +771,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -808,7 +812,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -846,10 +850,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -890,28 +894,28 @@
         <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>13</v>
@@ -928,22 +932,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>13</v>
@@ -969,31 +973,31 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>13</v>
@@ -1010,31 +1014,31 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>13</v>
@@ -1051,22 +1055,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>13</v>
@@ -1092,13 +1096,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>15</v>
@@ -1107,7 +1111,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>15</v>
@@ -1116,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>13</v>
@@ -1133,22 +1137,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>13</v>
@@ -1174,31 +1178,31 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>13</v>
@@ -1215,31 +1219,31 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>13</v>

--- a/Framework_DX11/Client/Bin/DataFiles/Tutorial_Chapter.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Tutorial_Chapter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A60E1CAA-8F33-48A0-8AB0-C709D6F13BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AADE90-4F56-4DB4-88CB-DB56F8804C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{56E5B20C-0607-44EB-B839-624A73907D88}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{56E5B20C-0607-44EB-B839-624A73907D88}"/>
   </bookViews>
   <sheets>
     <sheet name="Tutorial_Chapter" sheetId="1" r:id="rId1"/>
@@ -244,10 +244,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>방패로 가드를 하면 퍼펙트 가드가 높은 확률로 발동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>기본 회피 방법</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -264,10 +260,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>: 가드 (퍼펙트 확률 UP)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>리전 암 카운터</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -309,6 +301,14 @@
   </si>
   <si>
     <t>여러 회 좌클릭 하면 2가지 다른 공격 진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>: 방패 가드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIFT 연타하여 퍼펙트 가드 가능성을 높일 수 있음</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -751,7 +751,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -850,10 +850,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -894,28 +894,28 @@
         <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>13</v>
@@ -941,7 +941,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
@@ -982,7 +982,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
@@ -991,7 +991,7 @@
         <v>43</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>13</v>
@@ -1178,19 +1178,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>51</v>
@@ -1202,7 +1202,7 @@
         <v>15</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>13</v>
@@ -1219,13 +1219,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>47</v>
@@ -1234,7 +1234,7 @@
         <v>13</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>47</v>
@@ -1243,7 +1243,7 @@
         <v>47</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>13</v>
